--- a/UploadTemplate.xlsx
+++ b/UploadTemplate.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kayag.global\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="390" windowWidth="20115" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="Loans" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>CtrlNO</t>
   </si>
@@ -70,15 +77,9 @@
     <t>2015-05-0108</t>
   </si>
   <si>
-    <t>XXXX</t>
-  </si>
-  <si>
     <t>AppDate</t>
   </si>
   <si>
-    <t>3/31/2017</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -91,28 +92,28 @@
     <t>3</t>
   </si>
   <si>
-    <t>2357</t>
+    <t>11000</t>
+  </si>
+  <si>
+    <t>1/31/2017</t>
+  </si>
+  <si>
+    <t>PAID</t>
   </si>
   <si>
     <t>REAVAILMENT</t>
   </si>
   <si>
-    <t>INC</t>
-  </si>
-  <si>
-    <t>11000</t>
-  </si>
-  <si>
-    <t>1870</t>
-  </si>
-  <si>
-    <t>1/31/2017</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1888.33</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -192,6 +193,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -239,7 +243,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -272,9 +276,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -307,6 +328,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -486,18 +524,19 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="9.140625" style="1"/>
-    <col min="9" max="9" width="13.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="13.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.140625" style="1" customWidth="1"/>
     <col min="13" max="13" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -512,44 +551,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>10</v>
@@ -558,7 +597,7 @@
         <v>11</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>12</v>
@@ -574,57 +613,51 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>29</v>
+      <c r="A2" s="3"/>
+      <c r="B2" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/UploadTemplate.xlsx
+++ b/UploadTemplate.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kayag.global\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repositories\testserver\Megaworld-eFund\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loans" sheetId="1" r:id="rId1"/>
@@ -41,9 +41,6 @@
     <t>Mos</t>
   </si>
   <si>
-    <t>Amount</t>
-  </si>
-  <si>
     <t>Interest</t>
   </si>
   <si>
@@ -108,12 +105,15 @@
   </si>
   <si>
     <t>1888.33</t>
+  </si>
+  <si>
+    <t>Principal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -184,7 +184,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -520,11 +520,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,7 +555,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -564,82 +564,82 @@
         <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -649,7 +649,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/UploadTemplate.xlsx
+++ b/UploadTemplate.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repositories\testserver\Megaworld-eFund\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{88389E85-90AC-4B30-BC0E-E09EC1CD3224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loans" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="CompanyCode" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -24,97 +25,229 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
-  <si>
-    <t>CtrlNO</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>EmpID</t>
-  </si>
-  <si>
-    <t>Loc</t>
-  </si>
-  <si>
-    <t>Mos</t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>Deductions</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="72">
   <si>
     <t>StartOfDeductions</t>
   </si>
   <si>
-    <t>ApproverEmpID</t>
-  </si>
-  <si>
-    <t>EndorserEmpID</t>
-  </si>
-  <si>
-    <t>GuarantorEmpID</t>
-  </si>
-  <si>
-    <t>CvNo</t>
-  </si>
-  <si>
-    <t>CvDate</t>
-  </si>
-  <si>
-    <t>CheckNo</t>
-  </si>
-  <si>
-    <t>CheckRelease</t>
-  </si>
-  <si>
-    <t>2015-05-0108</t>
-  </si>
-  <si>
-    <t>AppDate</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>ApprovedAt</t>
-  </si>
-  <si>
-    <t>GuaranteedAmount</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>11000</t>
-  </si>
-  <si>
-    <t>1/31/2017</t>
-  </si>
-  <si>
-    <t>PAID</t>
-  </si>
-  <si>
-    <t>REAVAILMENT</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
-    <t>1888.33</t>
-  </si>
-  <si>
-    <t>Principal</t>
+    <t>ControlNo</t>
+  </si>
+  <si>
+    <t>ApplicationDate</t>
+  </si>
+  <si>
+    <t>EmployeeID</t>
+  </si>
+  <si>
+    <t>TermsMonths</t>
+  </si>
+  <si>
+    <t>InterestPercent</t>
+  </si>
+  <si>
+    <t>TotalPayable</t>
+  </si>
+  <si>
+    <t>LoanAmount</t>
+  </si>
+  <si>
+    <t>DeductionPerCutoff</t>
+  </si>
+  <si>
+    <t>LocalNo</t>
+  </si>
+  <si>
+    <t>BalanceAmount</t>
+  </si>
+  <si>
+    <t>2022-01-01</t>
+  </si>
+  <si>
+    <t>2016-06-0457</t>
+  </si>
+  <si>
+    <t>Company Name</t>
+  </si>
+  <si>
+    <t>ASIA AFFINITY PROPERTY MANAGEMENT, INC.</t>
+  </si>
+  <si>
+    <t>ASIAAPMI</t>
+  </si>
+  <si>
+    <t>CITYLINK COACH SERVICES, INC.</t>
+  </si>
+  <si>
+    <t>CITYLINK</t>
+  </si>
+  <si>
+    <t>EASTWOOD CINEMA 2000, INC - CITYWALK</t>
+  </si>
+  <si>
+    <t>ECINEMA</t>
+  </si>
+  <si>
+    <t>EASTWOOD CYBERONE CORPORATION</t>
+  </si>
+  <si>
+    <t>ECOC</t>
+  </si>
+  <si>
+    <t>ERA REAL ESTATE EXCHANGE INC.</t>
+  </si>
+  <si>
+    <t>EREX</t>
+  </si>
+  <si>
+    <t>FIRST CENTRO, INC.</t>
+  </si>
+  <si>
+    <t>FIRSTCENTRO</t>
+  </si>
+  <si>
+    <t>GLOBAL ONE INTEGRATED BUSINESS SERVICES, INC.</t>
+  </si>
+  <si>
+    <t>GL</t>
+  </si>
+  <si>
+    <t>LUXURY GLOBAL MALLS INC</t>
+  </si>
+  <si>
+    <t>GLOBAL ONE HOTEL GROUP, INC</t>
+  </si>
+  <si>
+    <t>GLOBAL_HOTEL</t>
+  </si>
+  <si>
+    <t>LA FUERZA, INC</t>
+  </si>
+  <si>
+    <t>LAFUERZA</t>
+  </si>
+  <si>
+    <t>LUCKY CHINATOWN CINEMAS, INC.</t>
+  </si>
+  <si>
+    <t>LCTM</t>
+  </si>
+  <si>
+    <t>MEGAWORLD CAPITAL TOWN INC.</t>
+  </si>
+  <si>
+    <t>MCTI</t>
+  </si>
+  <si>
+    <t>MEGAWORLD CORPORATION</t>
+  </si>
+  <si>
+    <t>MEGAWORLD</t>
+  </si>
+  <si>
+    <t>MEGAWORLD LAND, INC.</t>
+  </si>
+  <si>
+    <t>MLI</t>
+  </si>
+  <si>
+    <t>MREIT FUND MANAGERS, INC.</t>
+  </si>
+  <si>
+    <t>MREIT</t>
+  </si>
+  <si>
+    <t>MREIT INC.</t>
+  </si>
+  <si>
+    <t>MREIT PROPERTY MANAGERS, INC</t>
+  </si>
+  <si>
+    <t>NEWPORT COMMERCIAL CENTER ADMINISTRATION, INC.</t>
+  </si>
+  <si>
+    <t>NCCAI</t>
+  </si>
+  <si>
+    <t>NEWTOWN SCHOOL OF EXCELLENCE, INC.</t>
+  </si>
+  <si>
+    <t>NEWTOWN</t>
+  </si>
+  <si>
+    <t>MEGAWORLD OJT</t>
+  </si>
+  <si>
+    <t>OJTPAY</t>
+  </si>
+  <si>
+    <t>ROWENTA INTERNATIONAL, INC.</t>
+  </si>
+  <si>
+    <t>Rowenta</t>
+  </si>
+  <si>
+    <t>SIRUS REALTY SERVICE PHILIPPINES, INC</t>
+  </si>
+  <si>
+    <t>SIRUS</t>
+  </si>
+  <si>
+    <t>SUNTRUST HOME DEVELOPERS, INC.</t>
+  </si>
+  <si>
+    <t>SUNTRUST</t>
+  </si>
+  <si>
+    <t>TOWN SQUARE DEVELOPMENT, INC.</t>
+  </si>
+  <si>
+    <t>TOWNSQUARE</t>
+  </si>
+  <si>
+    <t>CompanyCode</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>30000</t>
+  </si>
+  <si>
+    <t>33600</t>
+  </si>
+  <si>
+    <t>1400</t>
+  </si>
+  <si>
+    <t>2022-01-15</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>21000</t>
+  </si>
+  <si>
+    <t>GuarantorEmployeeID</t>
+  </si>
+  <si>
+    <t>GuarantorCompanyCode</t>
+  </si>
+  <si>
+    <t>EndorserEmployeeID</t>
+  </si>
+  <si>
+    <t>EndorserCompanyCode</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,16 +262,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9900"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -146,15 +296,79 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,143 +735,340 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="13.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="1"/>
-    <col min="18" max="18" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" style="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="1"/>
+    <col min="13" max="13" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>9</v>
+        <v>68</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>22</v>
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>23</v>
+        <v>67</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="62" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/UploadTemplate.xlsx
+++ b/UploadTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88389E85-90AC-4B30-BC0E-E09EC1CD3224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF33B128-20EE-4D0D-B8F9-ED6595F4D7A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loans" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="74">
   <si>
     <t>StartOfDeductions</t>
   </si>
@@ -228,9 +228,6 @@
     <t>2210</t>
   </si>
   <si>
-    <t>21000</t>
-  </si>
-  <si>
     <t>GuarantorEmployeeID</t>
   </si>
   <si>
@@ -241,6 +238,15 @@
   </si>
   <si>
     <t>EndorserCompanyCode</t>
+  </si>
+  <si>
+    <t>GuarantorFullName</t>
+  </si>
+  <si>
+    <t>EndorserFullName</t>
+  </si>
+  <si>
+    <t>20000</t>
   </si>
 </sst>
 </file>
@@ -735,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,14 +761,16 @@
     <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.140625" style="1"/>
-    <col min="13" max="13" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="13" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -800,19 +808,25 @@
         <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="1" t="s">
         <v>12</v>
@@ -839,7 +853,7 @@
         <v>64</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>65</v>
@@ -858,8 +872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
